--- a/Midas/Documents/REST Design.xlsx
+++ b/Midas/Documents/REST Design.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4224"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4224" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="REST DESIGN" sheetId="1" r:id="rId1"/>
+    <sheet name="Updated Tables" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="caserver_BillingSystem_MST_CONFIGURATIONS" localSheetId="0" hidden="1">Sheet1!#REF!</definedName>
+    <definedName name="caserver_BillingSystem_MST_CONFIGURATIONS" localSheetId="0" hidden="1">'REST DESIGN'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="53">
   <si>
     <t>Method</t>
   </si>
@@ -53,174 +54,415 @@
     <t>Payload</t>
   </si>
   <si>
-    <t>"UserData": [
-    {UserName:""
-FirstName:""
-MiddleName:""
-LastName:""
-Gender:""
-UserType:""
-Notes:""
-Picture:""
-SSN:""
-DateOfBirth:""
-RoleId:""
-PASSWORD:""
-EmployerCode:""
-DefaultAttoreny:""
-Address1:""
-Address2:""
-City:""
-STATE:""
-ZipCode:""
-CountryCode:""
-AccountId:""
-Deleted:""
-CellPhone:""
-EmailAddress:""
-HomePhone:""
-WorkPhone:""
-FaxNo:""
+    <t>/patient</t>
+  </si>
+  <si>
+    <t>Add patient</t>
+  </si>
+  <si>
+    <t>Call user registration service and retrieve UserID in a variable for Pateint Details Insert (Call New Service to insert Patient detail)</t>
+  </si>
+  <si>
+    <t>PUT</t>
+  </si>
+  <si>
+    <t>/user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"PatientData": {
+    "PatientInfo": {
+        "UserID": "123",
+        "SSN": "AAA-GG-SSSS",
+        "WCBNO": "123DD12",
+        "JobTitle": "Sales Manager",
+  "WorkActivities": "Day to day work",
+  "CarrierCaseNo": "EMP45254",
+  "UseTranspotation": "false",
+  "ChartNo": "785474",
+  "CreateByUserID": "1"
+    },
+    "CaseInfo": { 
+    //to do -- Will share in next revision
+    },
+}}   </t>
+  </si>
+  <si>
+    <t>/provider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "ProviderData": {
+        "NPI": "1234567890",
+        "FederalTaxId": "AAA-GG-SSSS",
+        "Prefix": "RAD",
+        "CreateByUserID": "1"
+    }</t>
+  </si>
+  <si>
+    <t>/medicalfacilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"PatientData": {
+    "PatientInfo": {
+  "UserID": "123",
+  "SSN": "AAA-GG-SSSS",
+  "WCBNO": "123DD12",
+  "JobTitle": "Sales Manager",
+  "WorkActivities": "Day to day work",
+  "CarrierCaseNo": "EMP45254",
+  "UseTranspotation": "false",
+  "ChartNo": "785474",
+  "UpdatedByUserID": "123",
+  "IsDeleted":"0"
+    },
+    "CaseInfo": { 
+    //to do -- Will share in next revision
+    },
+}}   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   "PatientData": {
+        "ID": "1"
+    }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "ProviderData": {
+        "ID": "1"
+    }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "ProviderData": {
+        "ID":"123",
+        "NPI": "1234567890",
+        "FederalTaxId": "AAA-GG-SSSS",
+        "Prefix": "RAD",
+        "CreateByUserID": "1"
+    }</t>
+  </si>
+  <si>
+    <t>UserData:[{ID:""}]</t>
+  </si>
+  <si>
+    <t>If ID=0 Then Records=All Else GetRecordByID</t>
+  </si>
+  <si>
+    <t>"MedicalFacilitiesData": { 
+        "ID": "123"
+    },</t>
+  </si>
+  <si>
+    <t>/providermedicalfacilities</t>
+  </si>
+  <si>
+    <t>{"ProviderMedicalFacilitiesData": 
+ {
+ "ID":"123"
  }
- ]</t>
-  </si>
-  <si>
-    <t>/patient</t>
-  </si>
-  <si>
-    <t>Add patient</t>
-  </si>
-  <si>
-    <t>Call user registration service and retrieve UserID in a variable for Pateint Details Insert (Call New Service to insert Patient detail)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PatientData:[{Age:""
-WCBNO:""
-JobTitle:""
-WorkActivitis:""
-CarrierCaseNo:""
-EmployerName:""
-UseTranspotation:""
-AccountNo:""
-ChartNo:""
-PolicyHolder:""
-FirstTreatmentDate:""
-UserId:""
-IPAddress:""
-SourceProcess:""
-InsuranceId:""
-InsuranceAddressId:""
-AccountId:"",CaseTypeId:""
-ProviderID:""
-InsuranceId:""
-CaseStatusId:""
-AttorneyId:""
-ClaimNumber:""
-PolicyNumber:""
-DateOfAccident:""
-AdjusterId:""
-AssociateToDianosisCode:""
-AccountId:""
-InsuranceAddressId:""
-CaseNo:""
-IsDeleted:""
-LocationId:""
-IsCopied:""
-CopiedAccountId:""
-CopiedUserId:""
-CopiedDate:""
-CopiedFormPatient:""
-TotalBillAmount:""
-Paid:""
-Balance:""
-CasePrefix:""
-RemoteCaseID:""
-MarriedStatus:""
-ReferringDoctorID:""
-ReferringProviderId:""
-DiagnosisForSpecialty:""
-EmployerId:""
-EmployerAddressId:""
-Deleted:""}]</t>
-  </si>
-  <si>
-    <t>/visit</t>
-  </si>
-  <si>
-    <t>PUT</t>
-  </si>
-  <si>
-    <t>/user</t>
-  </si>
-  <si>
-    <t>"UserData": [
-    {UserID:""
-FirstName:""
-MiddleName:""
-LastName:""
-Gender:""
-UserType:""
-Notes:""
-Picture:""
-SSN:""
-DateOfBirth:""
-RoleId:""
-PASSWORD:""
-EmployerCode:""
-DefaultAttoreny:""
-Address1:""
-Address2:""
-City:""
-STATE:""
-ZipCode:""
-CountryCode:""
-AccountId:""
-Deleted:""
-CellPhone:""
-EmailAddress:""
-HomePhone:""
-WorkPhone:""
-FaxNo:""
- }
- ]</t>
-  </si>
-  <si>
-    <t>"VisitData":[{CaseId:""
-VisitDate:""
-VisitStartTime:""
-VisitEndTime:""
-Notes:""
-AccountId:""
-OfficeId:""
-DoctorID:""
-STATUS:""
-BillStatus:""
-BillDate:""
-BillNumber:""
-VisitTypeId:""
-StudyNumber:""
-Transportation:""
-Finalize:""
-AddedByDcotor:""
-CheckInUserId:""
-HasProcedureAdded:""
-ManuallyUnFinalized:""
-ClaimNumber:""
-PolicyNumber:""
-PolicyHolder:""
-PolicyHolderAddressId:""
-PolicyHolderContactInfoId:""
-ReferringOfficeID:""
-InsuranceId:""
-InsuranceAddressId:""
-SpecialtyId:""
-Deleted:""}]</t>
-  </si>
-  <si>
-    <t>UserData:[{UserID:""}]</t>
-  </si>
-  <si>
-    <t>If UserID=0 Then Records=All Else GetRecordByUserID</t>
+}</t>
+  </si>
+  <si>
+    <t>/account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"AccountData": {
+    "AccountInfo": { 
+  "Name":"First Admin",
+  "Status":"1",
+  "CreateByUserID":"0"
+  },
+ "AddressInfo": { 
+  "Name": "Account Address",
+  "Address1": "Southhall",
+  "Address2": "Chiswell Street",
+  "City": "London",
+  "State": "London",
+  "ZipCode": "EC1Y 4SA"
+    }
+}} </t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"UserData": {
+    "UserInfo": {                                                                                                                                                                                           "UserID":"123",
+        "AccountID": "0",
+        "UserName": "systemadmin",
+        "MiddleName": "P",
+        "LastName": "Doe",
+  "Gender": "M",
+  "UserType": "0", --Reference from UserType table
+  "ImageLink": "/Images/JOHN01152013",
+  "DateOfBirth": "01/15/2013",
+  "Password": "admin123",
+  "CreateByUserID": "1"
+    },
+    "AddressInfo": { 
+        "Name": "House Address",
+        "Address1": "Southhall",
+        "Address2": "Chiswell Street",
+        "City": "London",
+        "State": "London",
+  "ZipCode": "EC1Y 4SA",
+    },
+    "ContactInfo": { 
+        "Name": "Home Phone",
+        "CellPhone": "0442566624",
+        "EmailAddress": "contact@smtp.com",
+        "HomePhone": "0442566624",
+        "Workphone": "0442566624",
+  "FaxNo": "EC1Y 4SA"
+    },
+}}   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"MedicalFacilitiesData": {
+    "MedicalFacilitiesInfo": {
+  "Name":"CA Med",
+  "AccountID":"1",
+  "Prefix":"CA",
+  "CreateByUserID":"123"
+    },
+    "AddressInfo": { 
+        "Name": "House Address",
+        "Address1": "Southhall",
+        "Address2": "Chiswell Street",
+        "City": "London",
+        "State": "London",
+  "ZipCode": "EC1Y 4SA",
+    },
+    "ContactInfo": { 
+        "Name": "Home Phone",
+        "CellPhone": "0442566624",
+        "EmailAddress": "contact@smtp.com",
+        "HomePhone": "0442566624",
+        "Workphone": "0442566624",
+        "FaxNo": "EC1Y 4SA"
+    },
+}}   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"ProviderMedicalFacilitiesData": {
+ "ProviderMedicalFacilitiesInfo": {
+  "ProviderID":"123",
+  "MedicalOfficeID": "0",
+  "CreatedByUserID": "123"
+    },
+    "BillingAddressInfo": { 
+  "Name": "Billing Address",
+  "Address1": "Southhall",
+  "Address2": "Chiswell Street",
+  "City": "London",
+  "State": "London",
+  "ZipCode": "EC1Y 4SA",
+    },
+ "TreatingAddressInfo": { 
+  "Name": "Treating Address",
+  "Address1": "Southhall",
+  "Address2": "Chiswell Street",
+  "City": "London",
+  "State": "London",
+  "ZipCode": "EC1Y 4SA",
+  "Default": "false"
+    },
+    "BillingContactInfo": { 
+  "Name": "Billing Phone",
+  "CellPhone": "0442566624",
+  "EmailAddress": "contact@smtp.com",
+  "HomePhone": "0442566624",
+  "Workphone": "0442566624",
+  "FaxNo": "EC1Y 4SA"
+    },
+ "TreatingContactInfo": { 
+  "Name": "Contact Phone",
+  "CellPhone": "0442566624",
+  "EmailAddress": "contact@smtp.com",
+  "HomePhone": "0442566624",
+  "Workphone": "0442566624",
+  "FaxNo": "EC1Y 4SA"
+    },
+}}   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"UserData": {
+  "UserInfo": {
+  "ID":"123",
+  "AccountID": "0",
+  "MiddleName": "P",
+  "LastName": "Doe",
+  "Gender": "M",
+  "UserType": "0", --Reference from UserType table
+  "ImageLink": "/Images/JOHN01152013",
+  "DateOfBirth": "01/15/2013",
+  "Password": "admin123",
+  "UpdatedByUserID": "1",
+  "IsDeleted":"0"
+    },
+    "AddressInfo": { 
+  "Name": "House Address",
+  "Address1": "Southhall",
+  "Address2": "Chiswell Street",
+  "City": "London",
+  "State": "London",
+  "ZipCode": "EC1Y 4SA",
+  "IsDeleted":"0"
+    },
+    "ContactInfo": { 
+  "Name": "Home Phone",
+  "CellPhone": "0442566624",
+  "EmailAddress": "contact@smtp.com",
+  "HomePhone": "0442566624",
+  "Workphone": "0442566624",
+  "FaxNo": "EC1Y 4SA",
+  "IsDeleted":"0"
+    },
+}}   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"MedicalFacilitiesData": {
+    "MedicalFacilitiesInfo": {
+  "ID":"1",
+  "Name":"CA Med",
+  "AccountID":"1",
+  "Prefix":"CA",
+  "IsDeleted":"0",
+  "UpdateByUserID":"123"
+    },
+    "AddressInfo": { 
+        "Name": "House Address",
+        "Address1": "Southhall",
+        "Address2": "Chiswell Street",
+        "City": "London",
+        "State": "London",
+  "ZipCode": "EC1Y 4SA",
+    },
+    "ContactInfo": { 
+        "Name": "Home Phone",
+        "CellPhone": "0442566624",
+        "EmailAddress": "contact@smtp.com",
+        "HomePhone": "0442566624",
+        "Workphone": "0442566624",
+        "FaxNo": "EC1Y 4SA"
+    },
+}}   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"ProviderMedicalFacilitiesData": {
+ "ProviderMedicalFacilitiesInfo": {
+     "ID":"1",
+  "ProviderID":"123",
+  "MedicalOfficeID": "0",
+  "IsDeleted":"0",
+  "UpdatedByUserID": "123"
+    },
+    "BillingAddressInfo": { 
+  "Name": "Billing Address",
+  "Address1": "Southhall",
+  "Address2": "Chiswell Street",
+  "City": "London",
+  "State": "London",
+  "ZipCode": "EC1Y 4SA",
+  "IsDeleted":"0"
+    },
+ "TreatingAddressInfo": { 
+  "Name": "Treating Address",
+  "Address1": "Southhall",
+  "Address2": "Chiswell Street",
+  "City": "London",
+  "State": "London",
+  "ZipCode": "EC1Y 4SA",
+  "IsDeleted":"0"
+    },
+    "BillingContactInfo": { 
+  "Name": "Billing Phone",
+  "CellPhone": "0442566624",
+  "EmailAddress": "contact@smtp.com",
+  "HomePhone": "0442566624",
+  "Workphone": "0442566624",
+  "FaxNo": "EC1Y 4SA",
+  "IsDeleted":"0",
+    },
+ "TreatingContactInfo": { 
+  "Name": "Contact Phone",
+  "CellPhone": "0442566624",
+  "EmailAddress": "contact@smtp.com",
+  "HomePhone": "0442566624",
+  "Workphone": "0442566624",
+  "FaxNo": "EC1Y 4SA",
+  "IsDeleted":"0",
+    },
+}}   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"AccountData": {
+    "AccountInfo": { 
+  "ID":"123",
+  "Name":"First Admin",
+  "Status":"2",
+  "UpdatedByUserID":"0"
+  },
+ "AddressInfo": { 
+  "Name": "Account Address",
+  "Address1": "Southhall",
+  "Address2": "Chiswell Street",
+  "City": "London",
+  "State": "London",
+  "ZipCode": "EC1Y 4SA",
+  "IsDeleted":"false"
+    }
+}} </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   "AccountInfo": { 
+  "ID":"123"
+  }</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>CaseType</t>
+  </si>
+  <si>
+    <t>CaseStatus</t>
+  </si>
+  <si>
+    <t>Abberiviation</t>
+  </si>
+  <si>
+    <t>Provider</t>
+  </si>
+  <si>
+    <t>MedicalFacilities</t>
+  </si>
+  <si>
+    <t>ProviderMedicalFacilities</t>
+  </si>
+  <si>
+    <t>ContactInfo</t>
+  </si>
+  <si>
+    <t>EmailFields</t>
+  </si>
+  <si>
+    <t>EmailProfile</t>
+  </si>
+  <si>
+    <t>EmailTemplate</t>
+  </si>
+  <si>
+    <t>Patient</t>
+  </si>
+  <si>
+    <t>ApplicationSettings</t>
+  </si>
+  <si>
+    <t>UserType</t>
+  </si>
+  <si>
+    <t>Address</t>
   </si>
 </sst>
 </file>
@@ -280,7 +522,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -288,23 +530,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -586,111 +847,358 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="89.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="106.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="67.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="89.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="106.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="67.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="C6" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+    </row>
+    <row r="10" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="360" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="374.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="B13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="B15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
+      <c r="B17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="216" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>